--- a/docs/Report.xlsx
+++ b/docs/Report.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzopr\Documents\Code\Collabarator\rov-item-recommender\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzopr\Documents\Code\Collabarator\rov-item-recommender\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2262C7D1-DAEC-4C0B-9296-EECA0BA47827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A70B7-123A-4497-A686-E8778F22F31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BBF7C923-B152-46BE-8BB8-2D6BC2443F0F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>ลำดับ</t>
+  </si>
   <si>
     <t>รายการ</t>
   </si>
@@ -44,40 +36,43 @@
     <t>รายละเอียด</t>
   </si>
   <si>
-    <t>ลำดับ</t>
-  </si>
-  <si>
     <t>Select Class</t>
   </si>
   <si>
-    <t>แก้ไข</t>
+    <t>แก้ไขให้ตัวเลือกแสดง แสดงตามที่ Query จาก Database</t>
+  </si>
+  <si>
+    <t>Select Lane</t>
+  </si>
+  <si>
+    <t>Select Support Item</t>
+  </si>
+  <si>
+    <t>แก้ไขให้ย้ายไปที่ Container ของ Item</t>
+  </si>
+  <si>
+    <t>Select Farm Item</t>
+  </si>
+  <si>
+    <t>แก้ไข Select Farm Item ไม่ขึ่น</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-      <charset val="222"/>
+      <name val="Sukhumvit Set"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,24 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -138,7 +118,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -148,39 +128,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -213,26 +193,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -265,23 +228,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -343,6 +289,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -351,13 +304,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -422,244 +368,88 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479FECD8-8206-4902-B9E6-DEA1297C1905}">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="27.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.6328125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="6"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Report.xlsx
+++ b/docs/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzopr\Documents\Code\Collabarator\rov-item-recommender\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\RoV-Item-Recommender-System\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A70B7-123A-4497-A686-E8778F22F31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F39C02-3D21-4626-AE10-ABEE32A94C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="2865" windowWidth="21630" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,7 +102,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -383,18 +383,18 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.6328125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="33.6" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>

--- a/docs/Report.xlsx
+++ b/docs/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\RoV-Item-Recommender-System\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzopr\Documents\Code\Collabarator\rov-item-recommender\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F39C02-3D21-4626-AE10-ABEE32A94C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A70B7-123A-4497-A686-E8778F22F31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2865" windowWidth="21630" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,7 +102,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -383,18 +383,18 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultRowHeight="27.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="12.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.6328125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33.6" customHeight="1">
+    <row r="2" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>

--- a/docs/Report.xlsx
+++ b/docs/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzopr\Documents\Code\Collabarator\rov-item-recommender\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A70B7-123A-4497-A686-E8778F22F31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3475FA0-B592-4974-ACDD-9DFBEEF3602D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>แก้ไข Select Farm Item ไม่ขึ่น</t>
+  </si>
+  <si>
+    <t>สถานะ</t>
+  </si>
+  <si>
+    <t>ยังไม่ได้แก้ไข</t>
+  </si>
+  <si>
+    <t>แก้ไขแล้ว</t>
+  </si>
+  <si>
+    <t>แก้ไขให้แสดงเมื่อเลือก Farm Lane ใน Select Lane</t>
+  </si>
+  <si>
+    <t>แก้ไขให้แสดงเมื่อเลือก Support Lane ใน Select Lane</t>
   </si>
 </sst>
 </file>
@@ -75,12 +90,24 @@
       <name val="Sukhumvit Set"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,9 +122,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -106,6 +139,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -380,21 +418,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="27.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.6328125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="66.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,8 +443,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -415,8 +457,11 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -426,8 +471,11 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -437,8 +485,11 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -447,6 +498,92 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Report.xlsx
+++ b/docs/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\RoV-Item-Recommender-System\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzopr\Documents\Code\Collabarator\rov-item-recommender\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F39C02-3D21-4626-AE10-ABEE32A94C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4150F85E-B20E-4693-B10C-08DFBBBD876E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2865" windowWidth="21630" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -55,13 +55,28 @@
   </si>
   <si>
     <t>แก้ไข Select Farm Item ไม่ขึ่น</t>
+  </si>
+  <si>
+    <t>สถานะ</t>
+  </si>
+  <si>
+    <t>ยังไม่ได้แก้ไข</t>
+  </si>
+  <si>
+    <t>แก้ไขแล้ว</t>
+  </si>
+  <si>
+    <t>แก้ไขให้แสดงหลังเลือก Class แล้วเท่านั้น</t>
+  </si>
+  <si>
+    <t>แก้ไขให้แสดงหลังเลือก Lane แล้วเท่านั้น</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +89,34 @@
       <color theme="1"/>
       <name val="Sukhumvit Set"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Sukhumvit Set"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,21 +124,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -380,74 +442,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="27.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="12.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="33.6" customHeight="1">
-      <c r="A2" s="1">
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Report.xlsx
+++ b/docs/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzopr\Documents\Code\Collabarator\rov-item-recommender\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\RoV-Item-Recommender-System\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4150F85E-B20E-4693-B10C-08DFBBBD876E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB76C87-8A39-4585-B166-5298CB97232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="2865" windowWidth="21630" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,29 +137,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -445,311 +442,191 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="27.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" ht="33.6" customHeight="1">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Report.xlsx
+++ b/docs/Report.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\RoV-Item-Recommender-System\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fzopr\Documents\Code\Collabarator\rov-item-recommender\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB76C87-8A39-4585-B166-5298CB97232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92A04F2-12A1-4B1B-A959-7CB430CCD4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2865" windowWidth="21630" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -70,13 +81,28 @@
   </si>
   <si>
     <t>แก้ไขให้แสดงหลังเลือก Lane แล้วเท่านั้น</t>
+  </si>
+  <si>
+    <t>Select Force Item</t>
+  </si>
+  <si>
+    <t>แก้ไขให้เหลือ 2 ช่องหลังจากเลือก Support Class</t>
+  </si>
+  <si>
+    <t>Select Ban Item</t>
+  </si>
+  <si>
+    <t>Result &amp; Meta Item</t>
+  </si>
+  <si>
+    <t>ยังไม่ได้ใส่ Chart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,7 +182,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,19 +468,19 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="27.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="12.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -468,7 +494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33.6" customHeight="1">
+    <row r="2" spans="1:4" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -478,11 +504,11 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -492,11 +518,11 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -510,7 +536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -524,7 +550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -534,11 +560,11 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -548,81 +574,108 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
